--- a/TestData/hack_excel.xlsx
+++ b/TestData/hack_excel.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="34">
   <si>
     <t>Plans</t>
   </si>
@@ -122,6 +122,24 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Royal Sundaram</t>
+  </si>
+  <si>
+    <t>₹874</t>
+  </si>
+  <si>
+    <t>Travel Shield Single Trip</t>
+  </si>
+  <si>
+    <t>₹874GST included</t>
+  </si>
+  <si>
+    <t>₹1,220GST included</t>
+  </si>
+  <si>
+    <t>₹1,333GST included</t>
   </si>
 </sst>
 </file>
@@ -496,26 +514,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/hack_excel.xlsx
+++ b/TestData/hack_excel.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="36">
   <si>
     <t>Plans</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>₹1,333GST included</t>
+  </si>
+  <si>
+    <t>₹1,372GST included</t>
+  </si>
+  <si>
+    <t>₹1,396GST included</t>
   </si>
 </sst>
 </file>
@@ -533,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/hack_excel.xlsx
+++ b/TestData/hack_excel.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="41">
   <si>
     <t>Plans</t>
   </si>
@@ -146,6 +146,21 @@
   </si>
   <si>
     <t>₹1,396GST included</t>
+  </si>
+  <si>
+    <t>Niva Bupa (formerly known as Max Bupa)</t>
+  </si>
+  <si>
+    <t>₹988</t>
+  </si>
+  <si>
+    <t>Travel Assure</t>
+  </si>
+  <si>
+    <t>National Insurance</t>
+  </si>
+  <si>
+    <t>₹1,340</t>
   </si>
 </sst>
 </file>
@@ -520,26 +535,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/hack_excel.xlsx
+++ b/TestData/hack_excel.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="41">
   <si>
     <t>Plans</t>
   </si>
